--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\高谷幸陽\Desktop\webtemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\高谷幸陽\Desktop\tool\others\webtemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640FAD0B-369C-42AF-97C4-571C3C3983B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3760E89-D349-4BE4-9724-245E11C81DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>担当</t>
   </si>
@@ -118,12 +118,16 @@
     <t>http:localhost:1234</t>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>ABOUT</t>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -190,6 +194,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,6 +450,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,37 +493,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,10 +723,10 @@
   <dimension ref="A1:AD1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -730,30 +747,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="18" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="20"/>
+      <c r="N1" s="32"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -831,28 +848,28 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="31" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="8">
@@ -869,7 +886,7 @@
       <c r="M3" s="8">
         <v>333</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="16" t="s">
         <v>22</v>
       </c>
       <c r="O3" s="8"/>
@@ -889,13 +906,15 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
     </row>
-    <row r="4" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="24"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -929,11 +948,11 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
     </row>
-    <row r="5" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -971,9 +990,9 @@
     </row>
     <row r="6" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="11"/>
@@ -1003,8 +1022,8 @@
     </row>
     <row r="7" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1035,7 +1054,7 @@
     </row>
     <row r="8" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -1066,7 +1085,7 @@
     </row>
     <row r="9" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="24"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="8"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -1098,7 +1117,7 @@
     </row>
     <row r="10" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1130,7 +1149,7 @@
     </row>
     <row r="11" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="24"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1162,7 +1181,7 @@
     </row>
     <row r="12" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1194,7 +1213,7 @@
     </row>
     <row r="13" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1226,7 +1245,7 @@
     </row>
     <row r="14" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1258,7 +1277,7 @@
     </row>
     <row r="15" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1290,7 +1309,7 @@
     </row>
     <row r="16" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="25"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -32841,15 +32860,16 @@
       <c r="AD1001" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:B16"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
